--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-clientes.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D8326F-BB27-4622-9449-A137CB93B9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E31688-F5EF-45E4-8E45-CDB16A2E18B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
@@ -438,7 +438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,12 +485,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -911,10 +905,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1025,48 +1019,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1078,27 +1030,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1108,233 +1051,275 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1763,58 +1748,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="42" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1834,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="Q13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,70 +1850,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="128" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="129" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v>Objeto de dominio que contiene la informacion basica de los clientes del spa</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2119,42 +2104,42 @@
       <c r="T7" s="31"/>
     </row>
     <row r="8" spans="1:20" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="44">
         <v>1</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="44">
         <v>50</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="58" t="s">
+      <c r="M8" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="58" t="s">
+      <c r="N8" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="58" t="s">
+      <c r="O8" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="59" t="s">
+      <c r="P8" s="45" t="s">
         <v>72</v>
       </c>
       <c r="Q8" s="33"/>
@@ -2163,38 +2148,38 @@
       <c r="T8" s="31"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="62" t="s">
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="62" t="s">
+      <c r="M9" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="N9" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="62" t="s">
+      <c r="O9" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="63" t="s">
+      <c r="P9" s="45" t="s">
         <v>77</v>
       </c>
       <c r="Q9" s="33"/>
@@ -2206,7 +2191,7 @@
       <c r="A10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="46" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="5"/>
@@ -2232,7 +2217,7 @@
       <c r="A11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="46" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="5"/>
@@ -2255,11 +2240,11 @@
       <c r="T11" s="31"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="132"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -2273,77 +2258,77 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="66" t="str">
+      <c r="C15" s="49" t="str">
         <f>A6</f>
         <v>nombre</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="66" t="str">
+      <c r="A16" s="136"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="49" t="str">
         <f>A9</f>
         <v>NumeroDocumento</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="66" t="str">
+      <c r="C17" s="49" t="str">
         <f>A8</f>
         <v>CorreoElectronico</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45" t="s">
+      <c r="B19" s="103"/>
+      <c r="C19" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45" t="s">
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45" t="s">
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45" t="s">
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45" t="s">
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="48"/>
+      <c r="R19" s="104"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
       <c r="G20" s="19" t="s">
         <v>28</v>
       </c>
@@ -2356,12 +2341,12 @@
       <c r="J20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="47" t="s">
+      <c r="K20" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
       <c r="O20" s="19" t="s">
         <v>30</v>
       </c>
@@ -2376,30 +2361,30 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="89" t="s">
+      <c r="B21" s="107"/>
+      <c r="C21" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="115" t="s">
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="125" t="s">
+      <c r="H21" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="135" t="s">
+      <c r="I21" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="J21" s="125"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="91"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="114"/>
       <c r="O21" s="20" t="s">
         <v>94</v>
       </c>
@@ -2414,20 +2399,20 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="94"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="117"/>
       <c r="O22" s="20" t="s">
         <v>95</v>
       </c>
@@ -2442,20 +2427,20 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="97"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="120"/>
       <c r="O23" s="20" t="s">
         <v>96</v>
       </c>
@@ -2470,30 +2455,30 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="98" t="s">
+      <c r="B24" s="92"/>
+      <c r="C24" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="118" t="s">
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="128" t="s">
+      <c r="H24" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="138" t="s">
+      <c r="I24" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="118"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="100"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="54"/>
       <c r="O24" s="23" t="s">
         <v>97</v>
       </c>
@@ -2508,20 +2493,20 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="103"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="57"/>
       <c r="O25" s="23" t="s">
         <v>95</v>
       </c>
@@ -2536,20 +2521,20 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="106"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="60"/>
       <c r="O26" s="23" t="s">
         <v>98</v>
       </c>
@@ -2564,30 +2549,30 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="107" t="s">
+      <c r="B27" s="98"/>
+      <c r="C27" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="121" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="131" t="s">
+      <c r="H27" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="141" t="s">
+      <c r="I27" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="121"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="109"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="63"/>
       <c r="O27" s="28" t="s">
         <v>108</v>
       </c>
@@ -2602,20 +2587,20 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="112"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="66"/>
       <c r="O28" s="28" t="s">
         <v>109</v>
       </c>
@@ -2630,30 +2615,30 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="113" t="s">
+      <c r="B29" s="101"/>
+      <c r="C29" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="123" t="s">
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="133" t="s">
+      <c r="H29" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="113" t="s">
+      <c r="I29" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="123"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
       <c r="O29" s="31" t="s">
         <v>110</v>
       </c>
@@ -2663,70 +2648,40 @@
       <c r="Q29" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="R29" s="69" t="s">
+      <c r="R29" s="50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
       <c r="O30" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="P30" s="70" t="s">
+      <c r="P30" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="Q30" s="70" t="s">
+      <c r="Q30" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="R30" s="69" t="s">
+      <c r="R30" s="50" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="K24:N26"/>
-    <mergeCell ref="K27:N28"/>
-    <mergeCell ref="K29:N30"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C24:F26"/>
-    <mergeCell ref="C27:F28"/>
-    <mergeCell ref="C29:F30"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="C21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K21:N23"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -2738,8 +2693,38 @@
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="C21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K21:N23"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C24:F26"/>
+    <mergeCell ref="C27:F28"/>
+    <mergeCell ref="C29:F30"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="K24:N26"/>
+    <mergeCell ref="K27:N28"/>
+    <mergeCell ref="K29:N30"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
     <hyperlink ref="H29" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
@@ -2792,70 +2777,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="128" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>Genero</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="129" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v xml:space="preserve">Objeto de dominio que contiene la informacion de genero del cliente </v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3007,11 +2992,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -3037,44 +3022,44 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="103"/>
+      <c r="C12" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45" t="s">
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45" t="s">
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45" t="s">
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45" t="s">
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="48"/>
+      <c r="R12" s="104"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="19" t="s">
         <v>28</v>
       </c>
@@ -3087,12 +3072,12 @@
       <c r="J13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="47" t="s">
+      <c r="K13" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
       <c r="O13" s="19" t="s">
         <v>30</v>
       </c>
@@ -3107,16 +3092,16 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51" t="s">
+      <c r="B14" s="138"/>
+      <c r="C14" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="20" t="s">
         <v>41</v>
       </c>
@@ -3129,12 +3114,12 @@
       <c r="J14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="51" t="s">
+      <c r="K14" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
       <c r="O14" s="20" t="s">
         <v>64</v>
       </c>
@@ -3150,6 +3135,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -3159,11 +3149,6 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -3213,70 +3198,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="128" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>TipoIdentificacion</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="129" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la informacion base de los tipo de identificaion que tienen los clientes o las instituciones del spa</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
       <c r="Q3" s="33"/>
       <c r="R3" s="23"/>
       <c r="S3" s="28"/>
@@ -3432,6 +3417,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -3575,12 +3566,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
@@ -3590,6 +3575,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3607,15 +3601,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>
